--- a/Table.xlsx
+++ b/Table.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
   <si>
     <t>&lt;SUBJECT 테이블&gt;</t>
   </si>
@@ -40,18 +40,6 @@
     <t>SNUMBER</t>
   </si>
   <si>
-    <t>‘과목명’</t>
-  </si>
-  <si>
-    <t>‘과목 번호’</t>
-  </si>
-  <si>
-    <t>‘과목 년도’</t>
-  </si>
-  <si>
-    <t>대상 년도</t>
-  </si>
-  <si>
     <t>대상 학기</t>
   </si>
   <si>
@@ -120,9 +108,6 @@
     <t>MAXNUM</t>
   </si>
   <si>
-    <t>EXTIME</t>
-  </si>
-  <si>
     <t>EXNUM</t>
   </si>
   <si>
@@ -202,10 +187,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>검사시간대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>검사가능 인원수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -223,6 +204,39 @@
   </si>
   <si>
     <t>교번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PJNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과제이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상 학년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목 번호</t>
+  </si>
+  <si>
+    <t>과목 년도</t>
+  </si>
+  <si>
+    <t>과목명</t>
+  </si>
+  <si>
+    <t>EXSTIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검사시작시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검사종료시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -289,10 +303,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -597,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -616,213 +630,237 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="M1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="G1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="M1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="K9" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="2" t="s">
+      <c r="K11" s="1" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
